--- a/Analysis/server0s5p/client0.1s/p2pr600d0.5.xlsx
+++ b/Analysis/server0s5p/client0.1s/p2pr600d0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Topology</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Graph: Latency between each pair of devices</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -4770,11 +4773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73624960"/>
-        <c:axId val="73634944"/>
+        <c:axId val="164125312"/>
+        <c:axId val="164143488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73624960"/>
+        <c:axId val="164125312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4784,7 +4787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73634944"/>
+        <c:crossAx val="164143488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4792,7 +4795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73634944"/>
+        <c:axId val="164143488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,7 +4806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73624960"/>
+        <c:crossAx val="164125312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5149,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ATD104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="L104" sqref="L104"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46013,6 +46016,13 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(83:85)</f>
+        <v>1161.2187134502924</v>
+      </c>
     </row>
     <row r="83" spans="1:571" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -69962,7 +69972,7 @@
         <v>570</v>
       </c>
       <c r="IA97">
-        <f t="shared" ref="IA97:IS97" si="2218">FREQUENCY($B88:$UY88, IA$96)</f>
+        <f t="shared" ref="IA97:II97" si="2218">FREQUENCY($B88:$UY88, IA$96)</f>
         <v>570</v>
       </c>
       <c r="IB97">
@@ -70779,7 +70789,7 @@
         <v>570</v>
       </c>
       <c r="GO98">
-        <f t="shared" ref="GO98:IS98" si="2223">FREQUENCY($B89:$UY89, GO$96)</f>
+        <f t="shared" ref="GO98:II98" si="2223">FREQUENCY($B89:$UY89, GO$96)</f>
         <v>570</v>
       </c>
       <c r="GP98">
@@ -71748,7 +71758,7 @@
         <v>570</v>
       </c>
       <c r="GO99">
-        <f t="shared" ref="GO99:IS99" si="2227">FREQUENCY($B90:$UY90, GO$96)</f>
+        <f t="shared" ref="GO99:II99" si="2227">FREQUENCY($B90:$UY90, GO$96)</f>
         <v>570</v>
       </c>
       <c r="GP99">
@@ -72717,7 +72727,7 @@
         <v>570</v>
       </c>
       <c r="GO100">
-        <f t="shared" ref="GO100:IS100" si="2231">FREQUENCY($B91:$UY91, GO$96)</f>
+        <f t="shared" ref="GO100:II100" si="2231">FREQUENCY($B91:$UY91, GO$96)</f>
         <v>570</v>
       </c>
       <c r="GP100">
@@ -73686,7 +73696,7 @@
         <v>547</v>
       </c>
       <c r="GO101">
-        <f t="shared" ref="GO101:IS101" si="2235">FREQUENCY($B92:$UY92, GO$96)</f>
+        <f t="shared" ref="GO101:II101" si="2235">FREQUENCY($B92:$UY92, GO$96)</f>
         <v>547</v>
       </c>
       <c r="GP101">
@@ -74655,7 +74665,7 @@
         <v>570</v>
       </c>
       <c r="GO102">
-        <f t="shared" ref="GO102:IS102" si="2239">FREQUENCY($B93:$UY93, GO$96)</f>
+        <f t="shared" ref="GO102:II102" si="2239">FREQUENCY($B93:$UY93, GO$96)</f>
         <v>570</v>
       </c>
       <c r="GP102">
